--- a/MasterData/3. AmortTemplateUniverso.xlsx
+++ b/MasterData/3. AmortTemplateUniverso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,18 +153,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,7 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +846,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MasterData/3. AmortTemplateUniverso.xlsx
+++ b/MasterData/3. AmortTemplateUniverso.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="37">
   <si>
     <t>Series</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>ProjSchedFlag</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +908,9 @@
       </c>
       <c r="L1" t="s">
         <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
       </c>
       <c r="N1" t="s">
         <v>19</v>

--- a/MasterData/3. AmortTemplateUniverso.xlsx
+++ b/MasterData/3. AmortTemplateUniverso.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="38">
   <si>
     <t>Series</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>UniqueKey</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -848,9 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -960,9 +961,8 @@
         <f>CONCATENATE(A2,B2,C2,D2)</f>
         <v>355Acquired Series - 2 YrSeriesAcquired Series</v>
       </c>
-      <c r="N2" t="str">
-        <f>VLOOKUP(M2,Results!F:F,1,FALSE)</f>
-        <v>355Acquired Series - 2 YrSeriesAcquired Series</v>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1006,9 +1006,8 @@
         <f t="shared" ref="M3:M11" si="0">CONCATENATE(A3,B3,C3,D3)</f>
         <v>356Acquired Series - 3 YrSeriesAcquired Series</v>
       </c>
-      <c r="N3" t="str">
-        <f>VLOOKUP(M3,Results!F:F,1,FALSE)</f>
-        <v>356Acquired Series - 3 YrSeriesAcquired Series</v>
+      <c r="N3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1052,9 +1051,8 @@
         <f t="shared" si="0"/>
         <v>357Acquired Series - StraightlineSeriesAcquired Series</v>
       </c>
-      <c r="N4" t="str">
-        <f>VLOOKUP(M4,Results!F:F,1,FALSE)</f>
-        <v>357Acquired Series - StraightlineSeriesAcquired Series</v>
+      <c r="N4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1098,9 +1096,8 @@
         <f t="shared" si="0"/>
         <v>358Original Series - 2 YrSeriesBlank</v>
       </c>
-      <c r="N5" t="str">
-        <f>VLOOKUP(M5,Results!F:F,1,FALSE)</f>
-        <v>358Original Series - 2 YrSeriesBlank</v>
+      <c r="N5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1144,9 +1141,8 @@
         <f t="shared" si="0"/>
         <v>359Original Series - 3 YrSeriesBlank</v>
       </c>
-      <c r="N6" t="str">
-        <f>VLOOKUP(M6,Results!F:F,1,FALSE)</f>
-        <v>359Original Series - 3 YrSeriesBlank</v>
+      <c r="N6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1190,9 +1186,8 @@
         <f t="shared" si="0"/>
         <v>360Original Series - StraightlineSeriesBlank</v>
       </c>
-      <c r="N7" t="str">
-        <f>VLOOKUP(M7,Results!F:F,1,FALSE)</f>
-        <v>360Original Series - StraightlineSeriesBlank</v>
+      <c r="N7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1236,9 +1231,8 @@
         <f t="shared" si="0"/>
         <v>361Acquired Films - 2 YrFilmAcquired Films</v>
       </c>
-      <c r="N8" t="str">
-        <f>VLOOKUP(M8,Results!F:F,1,FALSE)</f>
-        <v>361Acquired Films - 2 YrFilmAcquired Films</v>
+      <c r="N8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1282,9 +1276,8 @@
         <f t="shared" si="0"/>
         <v>362Variety - 2 YrVarietyBlank</v>
       </c>
-      <c r="N9" t="str">
-        <f>VLOOKUP(M9,Results!F:F,1,FALSE)</f>
-        <v>362Variety - 2 YrVarietyBlank</v>
+      <c r="N9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1328,9 +1321,8 @@
         <f t="shared" si="0"/>
         <v>363Variety - 3 YrVarietyBlank</v>
       </c>
-      <c r="N10" t="str">
-        <f>VLOOKUP(M10,Results!F:F,1,FALSE)</f>
-        <v>363Variety - 3 YrVarietyBlank</v>
+      <c r="N10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1374,9 +1366,8 @@
         <f t="shared" si="0"/>
         <v>365Variety - StraightlineVarietyBlank</v>
       </c>
-      <c r="N11" t="str">
-        <f>VLOOKUP(M11,Results!F:F,1,FALSE)</f>
-        <v>365Variety - StraightlineVarietyBlank</v>
+      <c r="N11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
